--- a/sort/Clarion2_SpectraFiles.xlsx
+++ b/sort/Clarion2_SpectraFiles.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caturwibisono/Library/Mobile Documents/com~apple~CloudDocs/Clarion2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C132DCE7-E020-D54A-83F0-8C210FE85913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF4756F-1BA3-6B4A-9B58-F56043D5996D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4580" yWindow="1740" windowWidth="28040" windowHeight="16260" xr2:uid="{53736284-D04C-BE4B-ABF2-65DBCE1E6C97}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16260" xr2:uid="{53736284-D04C-BE4B-ABF2-65DBCE1E6C97}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>Files</t>
   </si>
@@ -112,6 +115,42 @@
   <si>
     <t>gamma-gamma matrix (Dopp-Dopp)</t>
   </si>
+  <si>
+    <t>A1-4</t>
+  </si>
+  <si>
+    <t>K11-3</t>
+  </si>
+  <si>
+    <t>GG_PROMPT_PUREF</t>
+  </si>
+  <si>
+    <t>dco-matrix(Forward-90)</t>
+  </si>
+  <si>
+    <t>GG_PROMPT_PUREB</t>
+  </si>
+  <si>
+    <t>dco-matrix(Backward-90)</t>
+  </si>
+  <si>
+    <t>GG_PROMPT_PUREFP</t>
+  </si>
+  <si>
+    <t>POL_PARA</t>
+  </si>
+  <si>
+    <t>paralel polarization spectra</t>
+  </si>
+  <si>
+    <t>POL_PERP</t>
+  </si>
+  <si>
+    <t>perpendicular polarization spectra</t>
+  </si>
+  <si>
+    <t>POL_PARA_P</t>
+  </si>
 </sst>
 </file>
 
@@ -172,6 +211,4779 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$18:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3730.8058999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4237.2727000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$18:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1173.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1332.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BBD3-0846-8F58-477A8B864401}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="662966544"/>
+        <c:axId val="662990096"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="662966544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="662990096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="662990096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="662966544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Black</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$2:$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1584.915</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1800.136</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$1:$B$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1173.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1332.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5012-6245-A1F0-BB9CF69872A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2140885583"/>
+        <c:axId val="2140887199"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2140885583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2140887199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2140887199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2140885583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Blue</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.8025371828521428E-2"/>
+          <c:y val="0.19486111111111112"/>
+          <c:w val="0.85219685039370074"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$9:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3877.8229999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4404.5510000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$8:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1173.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1332.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EF9E-6D43-BB88-5E1ED1AD12A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2067304495"/>
+        <c:axId val="21452960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2067304495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="21452960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="21452960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2067304495"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Green</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$11:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3925.52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4458.4430000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$10:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1173.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1332.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9507-7E45-B435-DE10FD016CB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="20433584"/>
+        <c:axId val="20443696"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="20433584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="20443696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="20443696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="20433584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Red</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$13:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3956.511</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4493.7929999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$12:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1173.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1332.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5D05-1544-9535-7C2E35CE5968}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="23343216"/>
+        <c:axId val="23441808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="23343216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="23441808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="23441808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="23343216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>690815</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>96585</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>312242</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>8574</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15404B9B-2617-C307-5E59-9951A817A9DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>806450</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7ED717B-8AFF-9A89-A899-D876CACDCE12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53861519-095D-417A-DCA1-195EF24CE927}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A64E2A6-9D84-7D74-4415-AD9E963AC3B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1D475AA-5AE6-30BE-7BED-905204384DCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -471,10 +5283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5132FCEE-0DE1-CF47-AF9E-B868C04F2389}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="186" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -653,7 +5465,474 @@
         <v>16</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11">
+        <v>5000</v>
+      </c>
+      <c r="C11">
+        <v>5000</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <v>5000</v>
+      </c>
+      <c r="C12">
+        <v>5000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13">
+        <v>5000</v>
+      </c>
+      <c r="C13">
+        <v>5000</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14">
+        <v>5000</v>
+      </c>
+      <c r="C14">
+        <v>5000</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>5000</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>5000</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>5000</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>5000</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F0B9CBA-B846-BE45-A55F-6797BEA41C06}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView zoomScale="157" workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1173.2</v>
+      </c>
+      <c r="B1">
+        <v>3782.9479999999999</v>
+      </c>
+      <c r="C1">
+        <v>1173.2</v>
+      </c>
+      <c r="D1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1332.5</v>
+      </c>
+      <c r="B2">
+        <v>4296.4799999999996</v>
+      </c>
+      <c r="C2">
+        <v>1332.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1173.2</v>
+      </c>
+      <c r="B3">
+        <v>3632.8578000000002</v>
+      </c>
+      <c r="C3">
+        <v>1173.2</v>
+      </c>
+      <c r="D3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1332.5</v>
+      </c>
+      <c r="B4">
+        <v>4126.2304999999997</v>
+      </c>
+      <c r="C4">
+        <v>1332.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1173.2</v>
+      </c>
+      <c r="B5">
+        <v>3561.259</v>
+      </c>
+      <c r="C5">
+        <v>1173.2</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1332.5</v>
+      </c>
+      <c r="B6">
+        <v>4044.8629599999999</v>
+      </c>
+      <c r="C6">
+        <v>1332.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1173.2</v>
+      </c>
+      <c r="B7">
+        <v>3819.4625000000001</v>
+      </c>
+      <c r="C7">
+        <v>1173.2</v>
+      </c>
+      <c r="D7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1332.5</v>
+      </c>
+      <c r="B8">
+        <v>4338.0661</v>
+      </c>
+      <c r="C8">
+        <v>1332.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>4010.4659999999999</v>
+      </c>
+      <c r="C10">
+        <v>1173.2</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>4548.1386000000002</v>
+      </c>
+      <c r="C11">
+        <v>1332.5</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>3742.8521999999998</v>
+      </c>
+      <c r="C12">
+        <v>1173.2</v>
+      </c>
+      <c r="D12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>4251.1036000000004</v>
+      </c>
+      <c r="C13">
+        <v>1332.5</v>
+      </c>
+      <c r="D13">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>1582.1568</v>
+      </c>
+      <c r="C14">
+        <v>1173.2</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>1796.886</v>
+      </c>
+      <c r="C15">
+        <v>1332.5</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>3852.5129999999999</v>
+      </c>
+      <c r="C16">
+        <v>1173.2</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>4375.6139999999996</v>
+      </c>
+      <c r="C17">
+        <v>1332.5</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>3730.8058999999998</v>
+      </c>
+      <c r="C18">
+        <v>1173.2</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>4237.2727000000004</v>
+      </c>
+      <c r="C19">
+        <v>1332.5</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{717FB8DA-D5A6-C64D-AC34-18149C666C97}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView zoomScale="212" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F5D92C2-A1C6-BB4C-96A5-EC126C560B0C}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" zoomScale="149" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1173.2</v>
+      </c>
+      <c r="B1">
+        <v>1332.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1584.915</v>
+      </c>
+      <c r="B2">
+        <v>1800.136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1173.2</v>
+      </c>
+      <c r="B8">
+        <v>1332.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3877.8229999999999</v>
+      </c>
+      <c r="B9">
+        <v>4404.5510000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1173.2</v>
+      </c>
+      <c r="B10">
+        <v>1332.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>3925.52</v>
+      </c>
+      <c r="B11">
+        <v>4458.4430000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1173.2</v>
+      </c>
+      <c r="B12">
+        <v>1332.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>3956.511</v>
+      </c>
+      <c r="B13">
+        <v>4493.7929999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>